--- a/result_0304.xlsx
+++ b/result_0304.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_data\50_Personal\16_WQIModel\WQi-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C17BF09-2127-427B-8ED2-29FF525F22EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98750EF5-26CA-46EF-AFC6-3A1BE236B687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1995" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{67EB1B11-5F84-4CE6-82E6-AD0190963FD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67EB1B11-5F84-4CE6-82E6-AD0190963FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Random_forest_loop200" sheetId="1" r:id="rId1"/>
     <sheet name="RF - feature importances" sheetId="4" r:id="rId2"/>
     <sheet name="SVR - feature importances" sheetId="5" r:id="rId3"/>
+    <sheet name="ANN" sheetId="6" r:id="rId4"/>
+    <sheet name="Gradient Boosted Tree" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="29">
   <si>
     <t>Set</t>
   </si>
@@ -123,12 +125,15 @@
   <si>
     <t>Permutation Feature importance</t>
   </si>
+  <si>
+    <t>Độ mặn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +154,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,13 +205,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -219,13 +242,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>322017</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>56769</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>99511</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -248,8 +271,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6309360" y="548640"/>
-          <a:ext cx="5804607" cy="5127879"/>
+          <a:off x="6305550" y="904876"/>
+          <a:ext cx="5076825" cy="4728660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>222893</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>70072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1470C1-8ADE-86E7-1A35-D8ADD4639B04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="6800850"/>
+          <a:ext cx="5709293" cy="5080222"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -277,7 +349,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>251487</xdr:colOff>
+      <xdr:colOff>247677</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>117717</xdr:rowOff>
     </xdr:to>
@@ -304,6 +376,163 @@
         <a:xfrm>
           <a:off x="5695950" y="1085850"/>
           <a:ext cx="5737887" cy="5108817"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>213362</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>75743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9461F0E6-9143-85B6-8866-AE6948E3EFEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5699760" y="7543800"/>
+          <a:ext cx="5699762" cy="5013503"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>384927</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8774FD-CC8B-7042-E185-33A07FCA62FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5532120" y="548640"/>
+          <a:ext cx="5871327" cy="5108817"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>327738</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>16771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B02617-DDFE-86DF-07D0-AA6611AE0F5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="365760"/>
+          <a:ext cx="5814138" cy="5137411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -639,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EE93D8-3C3C-4278-8463-046748D7C8C2}">
   <dimension ref="B2:F204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="Q160" sqref="Q160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4077,10 +4306,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6E4438-F59A-40A9-9AF5-289B7F75658C}">
-  <dimension ref="B2:D20"/>
+  <dimension ref="B2:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4269,6 +4498,180 @@
         <v>7.0463120000000004E-2</v>
       </c>
     </row>
+    <row r="37" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2.70192E-2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2.5553815973934298E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3.2437920000000002E-2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.184842E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4.7223580000000001E-2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.4295449999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4.7415770000000003E-2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>5.98314E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="2">
+        <v>5.046544E-2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.5738149999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="2">
+        <v>5.1290530000000001E-2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2.20465E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="2">
+        <v>5.4197509999999997E-2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.5739619999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5.4938460000000001E-2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.6876430000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5.5671329999999998E-2</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3.8108697107733798E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5.6772719999999999E-2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>7.2497272550910499E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="2">
+        <v>6.7876049999999993E-2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3.7451789999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="2">
+        <v>7.3185539999999993E-2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>3.1288690000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="2">
+        <v>8.2063720000000007E-2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3.2382380000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.14592099</v>
+      </c>
+      <c r="D51" s="2">
+        <v>6.521565E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.15352124</v>
+      </c>
+      <c r="D52" s="2">
+        <v>7.1530629999999998E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4277,10 +4680,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E299590A-F40E-4EAF-B0BD-2293E339A807}">
-  <dimension ref="B2:D22"/>
+  <dimension ref="B2:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4479,6 +4882,180 @@
         <v>2.5060579999999999E-2</v>
       </c>
     </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="5">
+        <v>6.2748280000000003E-2</v>
+      </c>
+      <c r="D42" s="5">
+        <v>4.1147199999999997E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="5">
+        <v>7.0121970000000006E-2</v>
+      </c>
+      <c r="D43" s="5">
+        <v>5.4453599999999998E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="5">
+        <v>7.4326009999999998E-2</v>
+      </c>
+      <c r="D44" s="5">
+        <v>5.6975799999999998E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="5">
+        <v>8.4779489999999999E-2</v>
+      </c>
+      <c r="D45" s="5">
+        <v>6.4681699999999996E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="5">
+        <v>9.4240679999999993E-2</v>
+      </c>
+      <c r="D46" s="5">
+        <v>4.8568336372579197E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.10724798000000001</v>
+      </c>
+      <c r="D47" s="5">
+        <v>7.2656500000000002E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.11066255999999999</v>
+      </c>
+      <c r="D48" s="5">
+        <v>6.75933E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.12816140000000001</v>
+      </c>
+      <c r="D49" s="5">
+        <v>5.3963561113032502E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.14740054</v>
+      </c>
+      <c r="D50" s="5">
+        <v>6.2999834536766799E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0.16609528000000001</v>
+      </c>
+      <c r="D51" s="5">
+        <v>9.1887199999999992E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0.17007669</v>
+      </c>
+      <c r="D52" s="5">
+        <v>9.5013100000000007E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.20075851</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1.3523169999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0.21170148999999999</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1.1697529999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0.23642450000000001</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1.1945600000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0.32285764</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1.4916499999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{A1B62A12-B317-4636-BDD1-BC54F19632E6}"/>
@@ -4486,4 +5063,394 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3781DFDC-39EC-468C-9C26-4DE70E09E515}">
+  <dimension ref="B4:D19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4.2216339999999998E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4.0471500000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.6545030000000001E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6.2041800000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6.1687539999999999E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5.6783199999999997E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6.4579990000000004E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4.98395E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7.3679969999999997E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5.8129000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7.6472849999999995E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5.4397100000000004E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7.9295309999999994E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6.3200499999999998E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>8.2623909999999995E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5.4036094763870498E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5">
+        <v>9.0856740000000005E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5.8025500000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5">
+        <v>9.8273479999999996E-2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>7.0887900000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.14532992</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4.8043599999999997E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.1628645</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5.3613000000000003E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.17403531</v>
+      </c>
+      <c r="D17" s="5">
+        <v>9.43232980156016E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.18160998</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6.9987048564716598E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.30130410000000002</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5.39728E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60005F77-EBE7-43B8-ADCF-F3B4FE992D36}">
+  <dimension ref="B3:D18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3.6781800000000003E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.1299000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4.5498690000000001E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.0488199999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.7863169999999997E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2.0720272257863698E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5.6546119999999998E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.0725499999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5.7417219999999998E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.91551E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5.9091339999999999E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.4933400000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6.129805E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.6448499999999998E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7.0386320000000002E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2.0141400000000002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5">
+        <v>7.7499680000000001E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.3468822017519301E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5">
+        <v>8.8153229999999999E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4.5722000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5">
+        <v>8.8240020000000002E-2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3.4429E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5">
+        <v>9.5011289999999998E-2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2.9173205364683499E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.13099425000000001</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4.9713800000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.13188221</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3.9156299999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.37313728000000002</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1.055319E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/result_0304.xlsx
+++ b/result_0304.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_data\50_Personal\16_WQIModel\WQi-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF4A349-32FB-4BCD-96D3-1415EEFAB6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAD5DB9-4428-4AFD-8897-0AC17633EFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{67EB1B11-5F84-4CE6-82E6-AD0190963FD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{67EB1B11-5F84-4CE6-82E6-AD0190963FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="loop200" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ANN" sheetId="6" r:id="rId4"/>
     <sheet name="Gradient Boosted Tree" sheetId="7" r:id="rId5"/>
     <sheet name="ANN_layers_node" sheetId="9" r:id="rId6"/>
+    <sheet name="Description" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="56">
   <si>
     <t>Set</t>
   </si>
@@ -156,12 +157,66 @@
   <si>
     <t>Number of layers</t>
   </si>
+  <si>
+    <t>Random forest regressor</t>
+  </si>
+  <si>
+    <t>number of decision trees</t>
+  </si>
+  <si>
+    <t>maximum posible dept</t>
+  </si>
+  <si>
+    <t>min samples split</t>
+  </si>
+  <si>
+    <t>min samples leaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support Vector Regressor </t>
+  </si>
+  <si>
+    <t>kernel</t>
+  </si>
+  <si>
+    <t>radial basic function (rbf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsilon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation function </t>
+  </si>
+  <si>
+    <t>Rectified linear unit (ReLU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimizer </t>
+  </si>
+  <si>
+    <t>nadam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learning rate </t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +258,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -291,6 +352,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -300,7 +364,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1023,56 +1097,56 @@
       </c>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="11" t="s">
+      <c r="W4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
-      <c r="AD4" s="11" t="s">
+      <c r="AD4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AK4" s="11" t="s">
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AK4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
     </row>
     <row r="5" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
@@ -20742,7 +20816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AC03B9-55C3-4C7B-B3E4-801C40E7165C}">
   <dimension ref="B3:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
@@ -21252,4 +21326,143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3373EA0E-BBCA-4ED4-9AE3-EB49A1A8482A}">
+  <dimension ref="C5:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="13">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="12"/>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="12"/>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="12"/>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="12"/>
+      <c r="D10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="12"/>
+      <c r="D11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="12"/>
+      <c r="D13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="12"/>
+      <c r="D14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="12"/>
+      <c r="D15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="12"/>
+      <c r="D16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="13">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>